--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -22,7 +22,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>Gîte les mélèzes</t>
+    <t>Les mélèzes</t>
   </si>
   <si>
     <t>address</t>
@@ -35,13 +35,19 @@
   </si>
   <si>
     <t>04 76 79 90 59</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>Gîte Hôtel à Villar-d'Arène.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -57,6 +63,7 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -88,7 +95,9 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -342,7 +351,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
